--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.178.8\bas\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531D82A-B2F0-4E4F-9C15-94056B3AFF0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F091FF4B-B1F1-4EFD-B636-E0CE25A2648C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
+    <sheet name="2018-09-07" sheetId="31" r:id="rId2"/>
+    <sheet name="2018-09-14" sheetId="32" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -116,6 +118,15 @@
   </si>
   <si>
     <t>Erik</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Gijs</t>
+  </si>
+  <si>
+    <t>bye</t>
   </si>
 </sst>
 </file>
@@ -479,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -542,6 +553,9 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -561,9 +575,6 @@
       </c>
       <c r="F3">
         <v>1</v>
-      </c>
-      <c r="K3">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -606,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1339,4 +1350,1391 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D190BDE-72C0-4A5C-9B52-1226458006A4}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550D1E1F-35D4-4F85-98B9-794D29685C18}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.178.8\bas\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F091FF4B-B1F1-4EFD-B636-E0CE25A2648C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA7AAB-7B8E-4C3D-A8CE-ED71699B446E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
     <sheet name="2018-09-07" sheetId="31" r:id="rId2"/>
     <sheet name="2018-09-14" sheetId="32" r:id="rId3"/>
+    <sheet name="2018-09-21" sheetId="33" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -617,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2006,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550D1E1F-35D4-4F85-98B9-794D29685C18}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2389,6 +2397,9 @@
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>112</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2737,4 +2748,755 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906F814D-14F0-4D22-A2BB-471DA5CDA068}">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.178.8\bas\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA7AAB-7B8E-4C3D-A8CE-ED71699B446E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28344F-1B39-401F-ACC5-4644B048B72B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
     <sheet name="2018-09-07" sheetId="31" r:id="rId2"/>
     <sheet name="2018-09-14" sheetId="32" r:id="rId3"/>
     <sheet name="2018-09-21" sheetId="33" r:id="rId4"/>
+    <sheet name="2018-09-28" sheetId="34" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -141,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,6 +155,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,18 +187,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2754,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906F814D-14F0-4D22-A2BB-471DA5CDA068}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="A1:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3499,4 +3516,756 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DAC770-A3DD-4BF9-AE6E-830033870627}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28344F-1B39-401F-ACC5-4644B048B72B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E407896-7350-41BA-A00C-899631DAA061}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="766" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2018-09-14" sheetId="32" r:id="rId3"/>
     <sheet name="2018-09-21" sheetId="33" r:id="rId4"/>
     <sheet name="2018-09-28" sheetId="34" r:id="rId5"/>
+    <sheet name="2018-10-05" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -142,12 +143,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -187,8 +195,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -196,12 +205,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3522,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DAC770-A3DD-4BF9-AE6E-830033870627}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4268,4 +4278,792 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22855EEE-7E26-4EF4-B787-04456A03E58F}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E407896-7350-41BA-A00C-899631DAA061}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6214E58-16EA-4923-AAFD-64EBFE95AFA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="766" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="766" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2018-09-21" sheetId="33" r:id="rId4"/>
     <sheet name="2018-09-28" sheetId="34" r:id="rId5"/>
     <sheet name="2018-10-05" sheetId="35" r:id="rId6"/>
+    <sheet name="2018-10-12" sheetId="36" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -138,17 +139,36 @@
   <si>
     <t>bye</t>
   </si>
+  <si>
+    <t>Frans</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ernie</t>
+  </si>
+  <si>
+    <t>Reyn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -195,8 +215,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -205,13 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4284,62 +4306,850 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22855EEE-7E26-4EF4-B787-04456A03E58F}">
   <dimension ref="A1:L37"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354FFAA9-6ED0-4FD3-A851-C0A20C7A67C0}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4349,83 +5159,77 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4436,85 +5240,82 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8">
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4522,96 +5323,96 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4624,14 +5425,14 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4642,39 +5443,39 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -4684,14 +5485,14 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4702,19 +5503,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -4724,80 +5525,83 @@
       <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>3</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2</v>
-      </c>
-      <c r="K22">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -4805,113 +5609,119 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -4925,79 +5735,82 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5005,62 +5818,102 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6214E58-16EA-4923-AAFD-64EBFE95AFA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0041AB4-0871-42BD-9A99-617DED736A56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="766" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" tabRatio="766" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2018-09-28" sheetId="34" r:id="rId5"/>
     <sheet name="2018-10-05" sheetId="35" r:id="rId6"/>
     <sheet name="2018-10-12" sheetId="36" r:id="rId7"/>
+    <sheet name="2018-10-19" sheetId="37" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -156,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,13 +198,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,25 +252,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5094,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354FFAA9-6ED0-4FD3-A851-C0A20C7A67C0}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5919,4 +5976,887 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250AF3C1-4313-44F7-8F76-D98E279F7103}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6">
+        <v>106</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0041AB4-0871-42BD-9A99-617DED736A56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F88160-1D35-4DF6-A430-A9BECD3BC675}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" tabRatio="766" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="12165" tabRatio="766" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -21,7 +21,15 @@
     <sheet name="2018-10-05" sheetId="35" r:id="rId6"/>
     <sheet name="2018-10-12" sheetId="36" r:id="rId7"/>
     <sheet name="2018-10-19" sheetId="37" r:id="rId8"/>
+    <sheet name="2018-10-26" sheetId="38" r:id="rId9"/>
+    <sheet name="2018-11-02" sheetId="39" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -303,6 +311,1910 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Setup"/>
+      <sheetName val="Rondeberekening"/>
+      <sheetName val="Overzicht"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Andor</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+          <cell r="F2">
+            <v>2</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Bert</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Marianne</v>
+          </cell>
+          <cell r="E3">
+            <v>3</v>
+          </cell>
+          <cell r="F3">
+            <v>4</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Reyn</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>3</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>JR</v>
+          </cell>
+          <cell r="E4">
+            <v>5</v>
+          </cell>
+          <cell r="F4">
+            <v>6</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>Gilbert</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5">
+            <v>4</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Bas</v>
+          </cell>
+          <cell r="E5">
+            <v>7</v>
+          </cell>
+          <cell r="F5">
+            <v>8</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Paplip</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Ernie</v>
+          </cell>
+          <cell r="E6">
+            <v>9</v>
+          </cell>
+          <cell r="F6">
+            <v>10</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>Elbert</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+          <cell r="C7">
+            <v>6</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>John</v>
+          </cell>
+          <cell r="E7">
+            <v>11</v>
+          </cell>
+          <cell r="F7">
+            <v>12</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>Jari</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>7</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Christa</v>
+          </cell>
+          <cell r="E8">
+            <v>13</v>
+          </cell>
+          <cell r="F8">
+            <v>14</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>Henri</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+          <cell r="C9">
+            <v>8</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Frans</v>
+          </cell>
+          <cell r="E9">
+            <v>15</v>
+          </cell>
+          <cell r="F9">
+            <v>16</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>Johan</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>9</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Pietra</v>
+          </cell>
+          <cell r="E10">
+            <v>17</v>
+          </cell>
+          <cell r="F10">
+            <v>18</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>bye</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B11">
+            <v>1</v>
+          </cell>
+          <cell r="C11">
+            <v>10</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v/>
+          </cell>
+          <cell r="E11">
+            <v>19</v>
+          </cell>
+          <cell r="F11">
+            <v>20</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="C12">
+            <v>11</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v/>
+          </cell>
+          <cell r="E12">
+            <v>21</v>
+          </cell>
+          <cell r="F12">
+            <v>22</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>12</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v/>
+          </cell>
+          <cell r="E13">
+            <v>23</v>
+          </cell>
+          <cell r="F13">
+            <v>24</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B14">
+            <v>1</v>
+          </cell>
+          <cell r="C14">
+            <v>13</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v/>
+          </cell>
+          <cell r="E14">
+            <v>25</v>
+          </cell>
+          <cell r="F14">
+            <v>26</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B15">
+            <v>1</v>
+          </cell>
+          <cell r="C15">
+            <v>14</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v/>
+          </cell>
+          <cell r="E15">
+            <v>27</v>
+          </cell>
+          <cell r="F15">
+            <v>28</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B16">
+            <v>1</v>
+          </cell>
+          <cell r="C16">
+            <v>15</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v/>
+          </cell>
+          <cell r="E16">
+            <v>29</v>
+          </cell>
+          <cell r="F16">
+            <v>30</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B17">
+            <v>1</v>
+          </cell>
+          <cell r="C17">
+            <v>16</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v/>
+          </cell>
+          <cell r="E17">
+            <v>31</v>
+          </cell>
+          <cell r="F17">
+            <v>32</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B18">
+            <v>1</v>
+          </cell>
+          <cell r="C18">
+            <v>17</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v/>
+          </cell>
+          <cell r="E18">
+            <v>33</v>
+          </cell>
+          <cell r="F18">
+            <v>34</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+          <cell r="C19">
+            <v>18</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v/>
+          </cell>
+          <cell r="E19">
+            <v>35</v>
+          </cell>
+          <cell r="F19">
+            <v>36</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B20">
+            <v>1</v>
+          </cell>
+          <cell r="C20">
+            <v>19</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v/>
+          </cell>
+          <cell r="E20">
+            <v>37</v>
+          </cell>
+          <cell r="F20">
+            <v>38</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+          <cell r="C21">
+            <v>20</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v/>
+          </cell>
+          <cell r="E21">
+            <v>39</v>
+          </cell>
+          <cell r="F21">
+            <v>40</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>bye</v>
+          </cell>
+          <cell r="C22">
+            <v>1</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Pietra</v>
+          </cell>
+          <cell r="E22">
+            <v>17</v>
+          </cell>
+          <cell r="F22">
+            <v>3</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>Marianne</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B23">
+            <v>2</v>
+          </cell>
+          <cell r="C23">
+            <v>1</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Johan</v>
+          </cell>
+          <cell r="E23">
+            <v>16</v>
+          </cell>
+          <cell r="F23">
+            <v>1</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>Andor</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B24">
+            <v>2</v>
+          </cell>
+          <cell r="C24">
+            <v>2</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>bye</v>
+          </cell>
+          <cell r="E24">
+            <v>18</v>
+          </cell>
+          <cell r="F24">
+            <v>3</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>Marianne</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B25">
+            <v>2</v>
+          </cell>
+          <cell r="C25">
+            <v>3</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Bert</v>
+          </cell>
+          <cell r="E25">
+            <v>2</v>
+          </cell>
+          <cell r="F25">
+            <v>5</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>JR</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B26">
+            <v>2</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Reyn</v>
+          </cell>
+          <cell r="E26">
+            <v>4</v>
+          </cell>
+          <cell r="F26">
+            <v>7</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>Bas</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B27">
+            <v>2</v>
+          </cell>
+          <cell r="C27">
+            <v>5</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Gilbert</v>
+          </cell>
+          <cell r="E27">
+            <v>6</v>
+          </cell>
+          <cell r="F27">
+            <v>9</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>Ernie</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B28">
+            <v>2</v>
+          </cell>
+          <cell r="C28">
+            <v>6</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Paplip</v>
+          </cell>
+          <cell r="E28">
+            <v>8</v>
+          </cell>
+          <cell r="F28">
+            <v>11</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B29">
+            <v>2</v>
+          </cell>
+          <cell r="C29">
+            <v>7</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Elbert</v>
+          </cell>
+          <cell r="E29">
+            <v>10</v>
+          </cell>
+          <cell r="F29">
+            <v>13</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>Christa</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B30">
+            <v>2</v>
+          </cell>
+          <cell r="C30">
+            <v>8</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Jari</v>
+          </cell>
+          <cell r="E30">
+            <v>12</v>
+          </cell>
+          <cell r="F30">
+            <v>15</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>Frans</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B31">
+            <v>2</v>
+          </cell>
+          <cell r="C31">
+            <v>9</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Henri</v>
+          </cell>
+          <cell r="E31">
+            <v>14</v>
+          </cell>
+          <cell r="F31">
+            <v>17</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>Pietra</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B32">
+            <v>2</v>
+          </cell>
+          <cell r="C32">
+            <v>10</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v/>
+          </cell>
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>19</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B33">
+            <v>2</v>
+          </cell>
+          <cell r="C33">
+            <v>11</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v/>
+          </cell>
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+          <cell r="F33">
+            <v>21</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B34">
+            <v>2</v>
+          </cell>
+          <cell r="C34">
+            <v>12</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v/>
+          </cell>
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+          <cell r="F34">
+            <v>23</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B35">
+            <v>2</v>
+          </cell>
+          <cell r="C35">
+            <v>13</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v/>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>25</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B36">
+            <v>2</v>
+          </cell>
+          <cell r="C36">
+            <v>14</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v/>
+          </cell>
+          <cell r="E36">
+            <v>0</v>
+          </cell>
+          <cell r="F36">
+            <v>27</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B37">
+            <v>2</v>
+          </cell>
+          <cell r="C37">
+            <v>15</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v/>
+          </cell>
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>29</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B38">
+            <v>2</v>
+          </cell>
+          <cell r="C38">
+            <v>16</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v/>
+          </cell>
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>31</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B39">
+            <v>2</v>
+          </cell>
+          <cell r="C39">
+            <v>17</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v/>
+          </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+          <cell r="F39">
+            <v>33</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B40">
+            <v>2</v>
+          </cell>
+          <cell r="C40">
+            <v>18</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v/>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+          <cell r="F40">
+            <v>35</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B41">
+            <v>2</v>
+          </cell>
+          <cell r="C41">
+            <v>19</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v/>
+          </cell>
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+          <cell r="F41">
+            <v>37</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+          <cell r="C42">
+            <v>20</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v/>
+          </cell>
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+          <cell r="F42">
+            <v>39</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B43">
+            <v>3</v>
+          </cell>
+          <cell r="C43">
+            <v>1</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Andor</v>
+          </cell>
+          <cell r="E43">
+            <v>1</v>
+          </cell>
+          <cell r="F43">
+            <v>18</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>bye</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B44">
+            <v>3</v>
+          </cell>
+          <cell r="C44">
+            <v>2</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Marianne</v>
+          </cell>
+          <cell r="E44">
+            <v>3</v>
+          </cell>
+          <cell r="F44">
+            <v>2</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>Bert</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B45">
+            <v>3</v>
+          </cell>
+          <cell r="C45">
+            <v>3</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>JR</v>
+          </cell>
+          <cell r="E45">
+            <v>5</v>
+          </cell>
+          <cell r="F45">
+            <v>4</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>Reyn</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B46">
+            <v>3</v>
+          </cell>
+          <cell r="C46">
+            <v>4</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Bas</v>
+          </cell>
+          <cell r="E46">
+            <v>7</v>
+          </cell>
+          <cell r="F46">
+            <v>6</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>Gilbert</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B47">
+            <v>3</v>
+          </cell>
+          <cell r="C47">
+            <v>5</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Ernie</v>
+          </cell>
+          <cell r="E47">
+            <v>9</v>
+          </cell>
+          <cell r="F47">
+            <v>8</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>Paplip</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B48">
+            <v>3</v>
+          </cell>
+          <cell r="C48">
+            <v>6</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>John</v>
+          </cell>
+          <cell r="E48">
+            <v>11</v>
+          </cell>
+          <cell r="F48">
+            <v>10</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>Elbert</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B49">
+            <v>3</v>
+          </cell>
+          <cell r="C49">
+            <v>7</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Christa</v>
+          </cell>
+          <cell r="E49">
+            <v>13</v>
+          </cell>
+          <cell r="F49">
+            <v>12</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>Jari</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B50">
+            <v>3</v>
+          </cell>
+          <cell r="C50">
+            <v>8</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Frans</v>
+          </cell>
+          <cell r="E50">
+            <v>15</v>
+          </cell>
+          <cell r="F50">
+            <v>14</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>Henri</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B51">
+            <v>3</v>
+          </cell>
+          <cell r="C51">
+            <v>9</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Pietra</v>
+          </cell>
+          <cell r="E51">
+            <v>17</v>
+          </cell>
+          <cell r="F51">
+            <v>16</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>Johan</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B52">
+            <v>3</v>
+          </cell>
+          <cell r="C52">
+            <v>10</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v/>
+          </cell>
+          <cell r="E52">
+            <v>19</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B53">
+            <v>3</v>
+          </cell>
+          <cell r="C53">
+            <v>11</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v/>
+          </cell>
+          <cell r="E53">
+            <v>21</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B54">
+            <v>3</v>
+          </cell>
+          <cell r="C54">
+            <v>12</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v/>
+          </cell>
+          <cell r="E54">
+            <v>23</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B55">
+            <v>3</v>
+          </cell>
+          <cell r="C55">
+            <v>13</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v/>
+          </cell>
+          <cell r="E55">
+            <v>25</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B56">
+            <v>3</v>
+          </cell>
+          <cell r="C56">
+            <v>14</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v/>
+          </cell>
+          <cell r="E56">
+            <v>27</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B57">
+            <v>3</v>
+          </cell>
+          <cell r="C57">
+            <v>15</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v/>
+          </cell>
+          <cell r="E57">
+            <v>29</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B58">
+            <v>3</v>
+          </cell>
+          <cell r="C58">
+            <v>16</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v/>
+          </cell>
+          <cell r="E58">
+            <v>31</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B59">
+            <v>3</v>
+          </cell>
+          <cell r="C59">
+            <v>17</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v/>
+          </cell>
+          <cell r="E59">
+            <v>33</v>
+          </cell>
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B60">
+            <v>3</v>
+          </cell>
+          <cell r="C60">
+            <v>18</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v/>
+          </cell>
+          <cell r="E60">
+            <v>35</v>
+          </cell>
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B61">
+            <v>3</v>
+          </cell>
+          <cell r="C61">
+            <v>19</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v/>
+          </cell>
+          <cell r="E61">
+            <v>37</v>
+          </cell>
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B62">
+            <v>3</v>
+          </cell>
+          <cell r="C62">
+            <v>20</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v/>
+          </cell>
+          <cell r="E62">
+            <v>39</v>
+          </cell>
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>bye</v>
+          </cell>
+          <cell r="C63">
+            <v>2</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Andor</v>
+          </cell>
+          <cell r="E63">
+            <v>1</v>
+          </cell>
+          <cell r="F63">
+            <v>5</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>JR</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B64">
+            <v>4</v>
+          </cell>
+          <cell r="C64">
+            <v>1</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Henri</v>
+          </cell>
+          <cell r="E64">
+            <v>14</v>
+          </cell>
+          <cell r="F64">
+            <v>1</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>Andor</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B65">
+            <v>4</v>
+          </cell>
+          <cell r="C65">
+            <v>2</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Johan</v>
+          </cell>
+          <cell r="E65">
+            <v>16</v>
+          </cell>
+          <cell r="F65">
+            <v>3</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>Marianne</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B66">
+            <v>4</v>
+          </cell>
+          <cell r="C66">
+            <v>3</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>bye</v>
+          </cell>
+          <cell r="E66">
+            <v>18</v>
+          </cell>
+          <cell r="F66">
+            <v>5</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>JR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B67">
+            <v>4</v>
+          </cell>
+          <cell r="C67">
+            <v>4</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Bert</v>
+          </cell>
+          <cell r="E67">
+            <v>2</v>
+          </cell>
+          <cell r="F67">
+            <v>7</v>
+          </cell>
+          <cell r="G67" t="str">
+            <v>Bas</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B68">
+            <v>4</v>
+          </cell>
+          <cell r="C68">
+            <v>5</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Reyn</v>
+          </cell>
+          <cell r="E68">
+            <v>4</v>
+          </cell>
+          <cell r="F68">
+            <v>9</v>
+          </cell>
+          <cell r="G68" t="str">
+            <v>Ernie</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B69">
+            <v>4</v>
+          </cell>
+          <cell r="C69">
+            <v>6</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Gilbert</v>
+          </cell>
+          <cell r="E69">
+            <v>6</v>
+          </cell>
+          <cell r="F69">
+            <v>11</v>
+          </cell>
+          <cell r="G69" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B70">
+            <v>4</v>
+          </cell>
+          <cell r="C70">
+            <v>7</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Paplip</v>
+          </cell>
+          <cell r="E70">
+            <v>8</v>
+          </cell>
+          <cell r="F70">
+            <v>13</v>
+          </cell>
+          <cell r="G70" t="str">
+            <v>Christa</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B71">
+            <v>4</v>
+          </cell>
+          <cell r="C71">
+            <v>8</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>Elbert</v>
+          </cell>
+          <cell r="E71">
+            <v>10</v>
+          </cell>
+          <cell r="F71">
+            <v>15</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>Frans</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="B72">
+            <v>4</v>
+          </cell>
+          <cell r="C72">
+            <v>9</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Jari</v>
+          </cell>
+          <cell r="E72">
+            <v>12</v>
+          </cell>
+          <cell r="F72">
+            <v>17</v>
+          </cell>
+          <cell r="G72" t="str">
+            <v>Pietra</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B73">
+            <v>4</v>
+          </cell>
+          <cell r="C73">
+            <v>10</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v/>
+          </cell>
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+          <cell r="F73">
+            <v>19</v>
+          </cell>
+          <cell r="G73" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B74">
+            <v>4</v>
+          </cell>
+          <cell r="C74">
+            <v>11</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v/>
+          </cell>
+          <cell r="E74">
+            <v>0</v>
+          </cell>
+          <cell r="F74">
+            <v>21</v>
+          </cell>
+          <cell r="G74" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B75">
+            <v>4</v>
+          </cell>
+          <cell r="C75">
+            <v>12</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v/>
+          </cell>
+          <cell r="E75">
+            <v>0</v>
+          </cell>
+          <cell r="F75">
+            <v>23</v>
+          </cell>
+          <cell r="G75" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B76">
+            <v>4</v>
+          </cell>
+          <cell r="C76">
+            <v>13</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v/>
+          </cell>
+          <cell r="E76">
+            <v>0</v>
+          </cell>
+          <cell r="F76">
+            <v>25</v>
+          </cell>
+          <cell r="G76" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B77">
+            <v>4</v>
+          </cell>
+          <cell r="C77">
+            <v>14</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v/>
+          </cell>
+          <cell r="E77">
+            <v>0</v>
+          </cell>
+          <cell r="F77">
+            <v>27</v>
+          </cell>
+          <cell r="G77" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B78">
+            <v>4</v>
+          </cell>
+          <cell r="C78">
+            <v>15</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v/>
+          </cell>
+          <cell r="E78">
+            <v>0</v>
+          </cell>
+          <cell r="F78">
+            <v>29</v>
+          </cell>
+          <cell r="G78" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B79">
+            <v>4</v>
+          </cell>
+          <cell r="C79">
+            <v>16</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v/>
+          </cell>
+          <cell r="E79">
+            <v>0</v>
+          </cell>
+          <cell r="F79">
+            <v>31</v>
+          </cell>
+          <cell r="G79" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B80">
+            <v>4</v>
+          </cell>
+          <cell r="C80">
+            <v>17</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v/>
+          </cell>
+          <cell r="E80">
+            <v>0</v>
+          </cell>
+          <cell r="F80">
+            <v>33</v>
+          </cell>
+          <cell r="G80" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B81">
+            <v>4</v>
+          </cell>
+          <cell r="C81">
+            <v>18</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v/>
+          </cell>
+          <cell r="E81">
+            <v>0</v>
+          </cell>
+          <cell r="F81">
+            <v>35</v>
+          </cell>
+          <cell r="G81" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B82">
+            <v>4</v>
+          </cell>
+          <cell r="C82">
+            <v>19</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v/>
+          </cell>
+          <cell r="E82">
+            <v>0</v>
+          </cell>
+          <cell r="F82">
+            <v>37</v>
+          </cell>
+          <cell r="G82" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="B83">
+            <v>4</v>
+          </cell>
+          <cell r="C83">
+            <v>20</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v/>
+          </cell>
+          <cell r="E83">
+            <v>0</v>
+          </cell>
+          <cell r="F83">
+            <v>39</v>
+          </cell>
+          <cell r="G83" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1466,6 +3378,715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62120409-4336-4A5C-A9A6-7A474E70F919}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D190BDE-72C0-4A5C-9B52-1226458006A4}">
   <dimension ref="A1:L31"/>
@@ -5982,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250AF3C1-4313-44F7-8F76-D98E279F7103}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6859,4 +9480,749 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF09951-5241-4B11-A4AA-BE0E96CDBBBF}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F88160-1D35-4DF6-A430-A9BECD3BC675}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF683C-7FA0-464A-A114-1490427A2BAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="12165" tabRatio="766" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="2018-10-19" sheetId="37" r:id="rId8"/>
     <sheet name="2018-10-26" sheetId="38" r:id="rId9"/>
     <sheet name="2018-11-02" sheetId="39" r:id="rId10"/>
+    <sheet name="2018-11-09" sheetId="40" r:id="rId11"/>
+    <sheet name="2018-11-16" sheetId="41" r:id="rId12"/>
+    <sheet name="2018-11-23" sheetId="42" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -3382,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62120409-4336-4A5C-A9A6-7A474E70F919}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4084,6 +4087,2229 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2807FDB-6E27-42AE-81F1-3F2F8D7D71D7}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2607D951-F509-473D-9431-9EA879382506}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AD299A-2AAE-4FAF-974E-C59201FF25BE}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF683C-7FA0-464A-A114-1490427A2BAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E6A48-503A-4998-A7D8-0ADD2560FB3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="2018-11-09" sheetId="40" r:id="rId11"/>
     <sheet name="2018-11-16" sheetId="41" r:id="rId12"/>
     <sheet name="2018-11-23" sheetId="42" r:id="rId13"/>
+    <sheet name="2018-11-30" sheetId="43" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -3373,7 +3374,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L34">
     <sortCondition ref="B2:B34"/>
   </sortState>
   <dataConsolidate/>
@@ -5560,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AD299A-2AAE-4FAF-974E-C59201FF25BE}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5783,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6310,6 +6311,582 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F0CCB6-2221-4891-B7FB-C6868D850B9E}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E6A48-503A-4998-A7D8-0ADD2560FB3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3960D6A1-7D25-446A-A08F-A54262DA8B9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="2018-11-16" sheetId="41" r:id="rId12"/>
     <sheet name="2018-11-23" sheetId="42" r:id="rId13"/>
     <sheet name="2018-11-30" sheetId="43" r:id="rId14"/>
+    <sheet name="2018-12-07" sheetId="44" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -6318,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F0CCB6-2221-4891-B7FB-C6868D850B9E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6882,6 +6883,752 @@
       </c>
       <c r="F31">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9458360-E296-46F1-BFA9-538A03CBCB69}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3960D6A1-7D25-446A-A08F-A54262DA8B9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B34D54C-5BFE-4BA9-A9BF-F1A7510C9BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" tabRatio="766" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="2018-11-23" sheetId="42" r:id="rId13"/>
     <sheet name="2018-11-30" sheetId="43" r:id="rId14"/>
     <sheet name="2018-12-07" sheetId="44" r:id="rId15"/>
+    <sheet name="2018-12-14" sheetId="45" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="39">
   <si>
     <t>Baan</t>
   </si>
@@ -6895,8 +6896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9458360-E296-46F1-BFA9-538A03CBCB69}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7629,6 +7630,650 @@
       </c>
       <c r="F35">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E10B84B-DCBC-49E6-9640-692E7DD5100B}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B34D54C-5BFE-4BA9-A9BF-F1A7510C9BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B13A0-C3F6-4310-A549-5A78A76D3C85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" tabRatio="766" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2018-11-30" sheetId="43" r:id="rId14"/>
     <sheet name="2018-12-07" sheetId="44" r:id="rId15"/>
     <sheet name="2018-12-14" sheetId="45" r:id="rId16"/>
+    <sheet name="2018-12-21" sheetId="46" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="41">
   <si>
     <t>Baan</t>
   </si>
@@ -165,6 +166,12 @@
   </si>
   <si>
     <t>Reyn</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -7642,8 +7649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E10B84B-DCBC-49E6-9640-692E7DD5100B}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8274,6 +8281,820 @@
       </c>
       <c r="F35">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5768C07-E95A-4FCB-8CBF-5CB47C9BE80D}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B13A0-C3F6-4310-A549-5A78A76D3C85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB4B9D-4384-4EE7-91C6-F7A339AD1D30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <sheet name="2018-12-07" sheetId="44" r:id="rId15"/>
     <sheet name="2018-12-14" sheetId="45" r:id="rId16"/>
     <sheet name="2018-12-21" sheetId="46" r:id="rId17"/>
+    <sheet name="2019-01-04" sheetId="47" r:id="rId18"/>
+    <sheet name="2019-01-11" sheetId="48" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="41">
   <si>
     <t>Baan</t>
   </si>
@@ -8293,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5768C07-E95A-4FCB-8CBF-5CB47C9BE80D}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9100,6 +9102,1485 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7AB550-C893-4846-82D9-26A0150FDA1E}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FDC3B4-CFB5-4FEE-99BE-1102ACA165FB}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB4B9D-4384-4EE7-91C6-F7A339AD1D30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA1DC5-F0F8-4740-A3FC-EAFA6013A77E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="2018-12-21" sheetId="46" r:id="rId17"/>
     <sheet name="2019-01-04" sheetId="47" r:id="rId18"/>
     <sheet name="2019-01-11" sheetId="48" r:id="rId19"/>
+    <sheet name="2019-01-18" sheetId="49" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="41">
   <si>
     <t>Baan</t>
   </si>
@@ -9923,8 +9924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FDC3B4-CFB5-4FEE-99BE-1102ACA165FB}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11231,6 +11232,789 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC018D2C-B3A3-4025-B16D-F3638AFAC7B7}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA1DC5-F0F8-4740-A3FC-EAFA6013A77E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE8CB55-455A-4E74-82E0-E7FC70E0666C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" tabRatio="766" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="2019-01-04" sheetId="47" r:id="rId18"/>
     <sheet name="2019-01-11" sheetId="48" r:id="rId19"/>
     <sheet name="2019-01-18" sheetId="49" r:id="rId20"/>
+    <sheet name="2019-01-25" sheetId="50" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="41">
   <si>
     <t>Baan</t>
   </si>
@@ -11239,8 +11240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC018D2C-B3A3-4025-B16D-F3638AFAC7B7}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12010,6 +12011,835 @@
       </c>
       <c r="F37">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE0A64-ED0F-4490-AC38-3C24C26E75B5}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE8CB55-455A-4E74-82E0-E7FC70E0666C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CFDF1-6C1D-4863-A7E8-DB8580567AA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" tabRatio="766" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -34,9 +34,10 @@
     <sheet name="2019-01-11" sheetId="48" r:id="rId19"/>
     <sheet name="2019-01-18" sheetId="49" r:id="rId20"/>
     <sheet name="2019-01-25" sheetId="50" r:id="rId21"/>
+    <sheet name="2019-02-01" sheetId="51" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="41">
   <si>
     <t>Baan</t>
   </si>
@@ -12023,8 +12024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE0A64-ED0F-4490-AC38-3C24C26E75B5}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12845,6 +12846,791 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E53A99-BD5E-4511-9DD1-7B0040AA9846}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasBloemsaat\OneDrive\pers_dev\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CFDF1-6C1D-4863-A7E8-DB8580567AA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{316CFDF1-6C1D-4863-A7E8-DB8580567AA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1886CDCF-CFAB-4DDD-9393-D355A88E480E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="766" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" firstSheet="10" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -35,9 +35,10 @@
     <sheet name="2019-01-18" sheetId="49" r:id="rId20"/>
     <sheet name="2019-01-25" sheetId="50" r:id="rId21"/>
     <sheet name="2019-02-01" sheetId="51" r:id="rId22"/>
+    <sheet name="2019-02-08" sheetId="52" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -177,6 +178,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Hans</t>
   </si>
 </sst>
 </file>
@@ -12853,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E53A99-BD5E-4511-9DD1-7B0040AA9846}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13631,6 +13635,829 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC4D836-864A-4337-B157-F773251258E0}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasBloemsaat\OneDrive\pers_dev\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{316CFDF1-6C1D-4863-A7E8-DB8580567AA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1886CDCF-CFAB-4DDD-9393-D355A88E480E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30095D-DF16-4D5F-A306-E86554F0D0E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" firstSheet="10" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="10" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -36,9 +36,10 @@
     <sheet name="2019-01-25" sheetId="50" r:id="rId21"/>
     <sheet name="2019-02-01" sheetId="51" r:id="rId22"/>
     <sheet name="2019-02-08" sheetId="52" r:id="rId23"/>
+    <sheet name="2019-02-15" sheetId="53" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -13642,8 +13643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC4D836-864A-4337-B157-F773251258E0}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14458,6 +14459,762 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C195A01-8681-41AF-AD84-02CB49269836}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30095D-DF16-4D5F-A306-E86554F0D0E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAAC30-CA33-4848-A9FC-5BB6E3302023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="10" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -37,9 +37,10 @@
     <sheet name="2019-02-01" sheetId="51" r:id="rId22"/>
     <sheet name="2019-02-08" sheetId="52" r:id="rId23"/>
     <sheet name="2019-02-15" sheetId="53" r:id="rId24"/>
+    <sheet name="2019-02-22" sheetId="54" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -14466,8 +14467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C195A01-8681-41AF-AD84-02CB49269836}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15210,6 +15211,629 @@
       </c>
       <c r="F37">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C049CCF7-37D4-4F63-A017-6587110D6872}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAAC30-CA33-4848-A9FC-5BB6E3302023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676AFD4-9D9F-483A-9899-80EBA5C1D777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -38,9 +38,10 @@
     <sheet name="2019-02-08" sheetId="52" r:id="rId23"/>
     <sheet name="2019-02-15" sheetId="53" r:id="rId24"/>
     <sheet name="2019-02-22" sheetId="54" r:id="rId25"/>
+    <sheet name="2019-03-01" sheetId="55" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -15223,8 +15224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C049CCF7-37D4-4F63-A017-6587110D6872}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15833,6 +15834,795 @@
         <v>2</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354226F-7CC0-4C31-A13E-88E1C6D1859A}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676AFD4-9D9F-483A-9899-80EBA5C1D777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD664E-B138-409B-A6D7-328D19F75AD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="14" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -39,9 +39,10 @@
     <sheet name="2019-02-15" sheetId="53" r:id="rId24"/>
     <sheet name="2019-02-22" sheetId="54" r:id="rId25"/>
     <sheet name="2019-03-01" sheetId="55" r:id="rId26"/>
+    <sheet name="2019-03-08" sheetId="56" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -293,29 +294,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,40 +2547,40 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2755,7 +2754,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -2775,7 +2774,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -2795,7 +2794,7 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -2815,7 +2814,7 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -2835,7 +2834,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -2855,7 +2854,7 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2875,7 +2874,7 @@
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
@@ -2895,7 +2894,7 @@
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -2915,7 +2914,7 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
@@ -2935,7 +2934,7 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
@@ -2955,7 +2954,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -2975,7 +2974,7 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
@@ -2998,7 +2997,7 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -3018,7 +3017,7 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -3038,7 +3037,7 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -3058,7 +3057,7 @@
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
@@ -3078,7 +3077,7 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
@@ -3098,7 +3097,7 @@
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
@@ -3118,7 +3117,7 @@
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -3138,7 +3137,7 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -3158,7 +3157,7 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
@@ -3178,7 +3177,7 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
@@ -3198,7 +3197,7 @@
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
@@ -3218,7 +3217,7 @@
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -3238,7 +3237,7 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
@@ -3258,7 +3257,7 @@
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
@@ -3278,7 +3277,7 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
@@ -3298,7 +3297,7 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
@@ -3318,7 +3317,7 @@
       <c r="A38">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
@@ -3338,7 +3337,7 @@
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
@@ -3358,7 +3357,7 @@
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
@@ -3378,7 +3377,7 @@
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" t="s">
@@ -3413,41 +3412,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10604,41 +10603,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12866,41 +12865,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15847,8 +15846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354226F-7CC0-4C31-A13E-88E1C6D1859A}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16624,6 +16623,626 @@
       </c>
       <c r="H37">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8391B268-072D-4A21-9410-11B49B2F3E3F}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16704,7 +17323,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -16724,7 +17343,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -16744,7 +17363,7 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -16764,7 +17383,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -16784,7 +17403,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -16804,7 +17423,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -16824,7 +17443,7 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -16844,7 +17463,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -16884,7 +17503,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -16904,7 +17523,7 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -16924,7 +17543,7 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -16944,7 +17563,7 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -16964,7 +17583,7 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
@@ -16984,7 +17603,7 @@
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -17004,7 +17623,7 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
@@ -17027,7 +17646,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
@@ -17047,7 +17666,7 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
@@ -17067,7 +17686,7 @@
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -17087,7 +17706,7 @@
       <c r="A22">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -17107,7 +17726,7 @@
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -17127,7 +17746,7 @@
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -17147,7 +17766,7 @@
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
@@ -17170,7 +17789,7 @@
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
@@ -17230,7 +17849,7 @@
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
@@ -17250,7 +17869,7 @@
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -17270,7 +17889,7 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -17290,7 +17909,7 @@
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
@@ -17310,7 +17929,7 @@
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -17330,7 +17949,7 @@
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
@@ -17350,7 +17969,7 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
@@ -17374,57 +17993,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906F814D-14F0-4D22-A2BB-471DA5CDA068}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="A1:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="16" max="16" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
@@ -17444,7 +18060,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
@@ -17464,7 +18080,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
@@ -17484,7 +18100,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
@@ -17507,7 +18123,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
@@ -17530,7 +18146,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -17553,7 +18169,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
@@ -17573,7 +18189,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
@@ -17593,7 +18209,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
@@ -17613,7 +18229,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>6</v>
       </c>
       <c r="B11">
@@ -17633,7 +18249,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
@@ -17653,7 +18269,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
@@ -17673,7 +18289,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
@@ -17693,7 +18309,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
@@ -17713,7 +18329,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
@@ -17733,7 +18349,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
@@ -17753,7 +18369,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
@@ -17773,7 +18389,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
@@ -17793,7 +18409,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>6</v>
       </c>
       <c r="B20">
@@ -17813,7 +18429,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
@@ -17833,7 +18449,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
@@ -17853,7 +18469,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>3</v>
       </c>
       <c r="B23">
@@ -17873,7 +18489,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
@@ -17893,7 +18509,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
@@ -17913,7 +18529,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>6</v>
       </c>
       <c r="B26">
@@ -17933,7 +18549,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
@@ -17953,7 +18569,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>6</v>
       </c>
       <c r="B28">
@@ -17973,7 +18589,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>6</v>
       </c>
       <c r="B29">
@@ -17993,7 +18609,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>6</v>
       </c>
       <c r="B30">
@@ -18013,7 +18629,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>6</v>
       </c>
       <c r="B31">
@@ -18033,7 +18649,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
@@ -18053,7 +18669,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>4</v>
       </c>
       <c r="B33">
@@ -18073,7 +18689,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
@@ -18096,7 +18712,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>5</v>
       </c>
       <c r="B35">
@@ -18198,7 +18814,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
@@ -18370,7 +18986,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -18536,7 +19152,7 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19">
@@ -18799,7 +19415,7 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32">
@@ -19673,41 +20289,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -20504,871 +21120,871 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6">
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4">
         <v>106</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="5">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="6">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5">
-        <v>4</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="11">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>5</v>
       </c>
-      <c r="B27" s="5">
-        <v>4</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="6">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>6</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>6</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="6">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="4">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>5</v>
       </c>
-      <c r="B31" s="5">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
-        <v>6</v>
-      </c>
-      <c r="B32" s="5">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="9">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="6">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -21387,41 +22003,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676AFD4-9D9F-483A-9899-80EBA5C1D777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960D055-3F25-414B-AC20-7CA9723F70E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -39,9 +39,11 @@
     <sheet name="2019-02-15" sheetId="53" r:id="rId24"/>
     <sheet name="2019-02-22" sheetId="54" r:id="rId25"/>
     <sheet name="2019-03-01" sheetId="55" r:id="rId26"/>
+    <sheet name="2019-03-08" sheetId="56" r:id="rId27"/>
+    <sheet name="2019-03-15" sheetId="57" r:id="rId28"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -293,29 +295,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,40 +2548,40 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -2775,7 +2775,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -2795,7 +2795,7 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -2815,7 +2815,7 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -2835,7 +2835,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -2855,7 +2855,7 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2875,7 +2875,7 @@
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
@@ -2895,7 +2895,7 @@
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -2915,7 +2915,7 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
@@ -2935,7 +2935,7 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
@@ -2955,7 +2955,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -2975,7 +2975,7 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
@@ -2998,7 +2998,7 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -3018,7 +3018,7 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -3038,7 +3038,7 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -3058,7 +3058,7 @@
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
@@ -3078,7 +3078,7 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
@@ -3098,7 +3098,7 @@
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
@@ -3118,7 +3118,7 @@
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -3138,7 +3138,7 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -3158,7 +3158,7 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
@@ -3178,7 +3178,7 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
@@ -3198,7 +3198,7 @@
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
@@ -3218,7 +3218,7 @@
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -3238,7 +3238,7 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
@@ -3258,7 +3258,7 @@
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
@@ -3278,7 +3278,7 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
@@ -3298,7 +3298,7 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
@@ -3318,7 +3318,7 @@
       <c r="A38">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
@@ -3338,7 +3338,7 @@
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
@@ -3358,7 +3358,7 @@
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
@@ -3378,7 +3378,7 @@
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" t="s">
@@ -3413,41 +3413,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10604,41 +10604,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12866,41 +12866,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15847,8 +15847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354226F-7CC0-4C31-A13E-88E1C6D1859A}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16624,6 +16624,1458 @@
       </c>
       <c r="H37">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8391B268-072D-4A21-9410-11B49B2F3E3F}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DEBFD1-E95D-4B36-B60A-0545D30A721D}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16704,7 +18156,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -16724,7 +18176,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -16744,7 +18196,7 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -16764,7 +18216,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -16784,7 +18236,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -16804,7 +18256,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -16824,7 +18276,7 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -16844,7 +18296,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -16884,7 +18336,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -16904,7 +18356,7 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -16924,7 +18376,7 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -16944,7 +18396,7 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -16964,7 +18416,7 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
@@ -16984,7 +18436,7 @@
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -17004,7 +18456,7 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
@@ -17027,7 +18479,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
@@ -17047,7 +18499,7 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
@@ -17067,7 +18519,7 @@
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -17087,7 +18539,7 @@
       <c r="A22">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -17107,7 +18559,7 @@
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -17127,7 +18579,7 @@
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -17147,7 +18599,7 @@
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
@@ -17170,7 +18622,7 @@
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
@@ -17230,7 +18682,7 @@
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
@@ -17250,7 +18702,7 @@
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -17270,7 +18722,7 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -17290,7 +18742,7 @@
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
@@ -17310,7 +18762,7 @@
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -17330,7 +18782,7 @@
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
@@ -17350,7 +18802,7 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
@@ -17374,57 +18826,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906F814D-14F0-4D22-A2BB-471DA5CDA068}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="A1:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="16" max="16" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
@@ -17444,7 +18893,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
@@ -17464,7 +18913,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
@@ -17484,7 +18933,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
@@ -17507,7 +18956,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
@@ -17530,7 +18979,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -17553,7 +19002,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
@@ -17573,7 +19022,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
@@ -17593,7 +19042,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
@@ -17613,7 +19062,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>6</v>
       </c>
       <c r="B11">
@@ -17633,7 +19082,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
@@ -17653,7 +19102,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
@@ -17673,7 +19122,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
@@ -17693,7 +19142,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
@@ -17713,7 +19162,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
@@ -17733,7 +19182,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
@@ -17753,7 +19202,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
@@ -17773,7 +19222,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
@@ -17793,7 +19242,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>6</v>
       </c>
       <c r="B20">
@@ -17813,7 +19262,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
@@ -17833,7 +19282,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
@@ -17853,7 +19302,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>3</v>
       </c>
       <c r="B23">
@@ -17873,7 +19322,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
@@ -17893,7 +19342,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
@@ -17913,7 +19362,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>6</v>
       </c>
       <c r="B26">
@@ -17933,7 +19382,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
@@ -17953,7 +19402,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>6</v>
       </c>
       <c r="B28">
@@ -17973,7 +19422,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>6</v>
       </c>
       <c r="B29">
@@ -17993,7 +19442,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>6</v>
       </c>
       <c r="B30">
@@ -18013,7 +19462,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>6</v>
       </c>
       <c r="B31">
@@ -18033,7 +19482,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
@@ -18053,7 +19502,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>4</v>
       </c>
       <c r="B33">
@@ -18073,7 +19522,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
@@ -18096,7 +19545,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>5</v>
       </c>
       <c r="B35">
@@ -18198,7 +19647,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
@@ -18370,7 +19819,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -18536,7 +19985,7 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19">
@@ -18799,7 +20248,7 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32">
@@ -19673,41 +21122,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -20504,871 +21953,871 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6">
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4">
         <v>106</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="5">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="6">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5">
-        <v>4</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="11">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>5</v>
       </c>
-      <c r="B27" s="5">
-        <v>4</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="6">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>6</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>6</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="6">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="4">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>5</v>
       </c>
-      <c r="B31" s="5">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
-        <v>6</v>
-      </c>
-      <c r="B32" s="5">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="9">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="6">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -21387,41 +22836,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960D055-3F25-414B-AC20-7CA9723F70E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D21CD5-354E-48D6-B76F-A5B968CB1E5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="15" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -41,9 +41,10 @@
     <sheet name="2019-03-01" sheetId="55" r:id="rId26"/>
     <sheet name="2019-03-08" sheetId="56" r:id="rId27"/>
     <sheet name="2019-03-15" sheetId="57" r:id="rId28"/>
+    <sheet name="2019-03-22" sheetId="58" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -17256,8 +17257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DEBFD1-E95D-4B36-B60A-0545D30A721D}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18076,6 +18077,755 @@
       </c>
       <c r="F39">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC07CB-92DC-4A4D-AFED-C2E87BD1C007}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D21CD5-354E-48D6-B76F-A5B968CB1E5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF50FC-2415-431F-988D-3ACC299219CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="15" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15390" tabRatio="766" firstSheet="18" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -42,9 +42,10 @@
     <sheet name="2019-03-08" sheetId="56" r:id="rId27"/>
     <sheet name="2019-03-15" sheetId="57" r:id="rId28"/>
     <sheet name="2019-03-22" sheetId="58" r:id="rId29"/>
+    <sheet name="2019-03-29" sheetId="59" r:id="rId30"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -18089,8 +18090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC07CB-92DC-4A4D-AFED-C2E87BD1C007}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19574,6 +19575,783 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B5EF8-1F6A-44A1-81AC-AFA6425D047D}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906F814D-14F0-4D22-A2BB-471DA5CDA068}">
   <dimension ref="A1:L35"/>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF50FC-2415-431F-988D-3ACC299219CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79BE61-2403-4F5D-A975-D107CB92DFD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15390" tabRatio="766" firstSheet="18" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41355" yWindow="6375" windowWidth="43200" windowHeight="23535" tabRatio="766" firstSheet="18" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -43,9 +43,11 @@
     <sheet name="2019-03-15" sheetId="57" r:id="rId28"/>
     <sheet name="2019-03-22" sheetId="58" r:id="rId29"/>
     <sheet name="2019-03-29" sheetId="59" r:id="rId30"/>
+    <sheet name="2019-04-05" sheetId="60" r:id="rId31"/>
+    <sheet name="2019-04-12" sheetId="61" r:id="rId32"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -19579,8 +19581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B5EF8-1F6A-44A1-81AC-AFA6425D047D}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20343,6 +20345,1341 @@
         <v>2</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D112CC1D-C1FB-4FA2-90DE-C490B1C998F6}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79754A5-182A-4B4A-B010-291AF7853B81}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2018-2019.xlsx
+++ b/data/Austerlitz_seizoen_2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79BE61-2403-4F5D-A975-D107CB92DFD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A169B49-1567-45BD-9391-F1821F43E226}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41355" yWindow="6375" windowWidth="43200" windowHeight="23535" tabRatio="766" firstSheet="18" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="5370" windowWidth="43200" windowHeight="23535" tabRatio="766" firstSheet="20" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-08-31" sheetId="30" r:id="rId1"/>
@@ -45,9 +45,11 @@
     <sheet name="2019-03-29" sheetId="59" r:id="rId30"/>
     <sheet name="2019-04-05" sheetId="60" r:id="rId31"/>
     <sheet name="2019-04-12" sheetId="61" r:id="rId32"/>
+    <sheet name="2019-04-19" sheetId="62" r:id="rId33"/>
+    <sheet name="2019-04-26" sheetId="63" r:id="rId34"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="42">
   <si>
     <t>Baan</t>
   </si>
@@ -20993,8 +20995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79754A5-182A-4B4A-B010-291AF7853B81}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21681,6 +21683,1367 @@
       </c>
       <c r="F33">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29823364-1A95-47F8-AC3D-7234B76C828F}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AD2B81-6BAF-4236-A644-08F29F28AE48}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
